--- a/similarities/split_global/harmonic_similarity_timestamps_264.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_264.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,178 +484,194 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:08.359000', '0:00:13.688000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['C:maj', 'F:7/D#', 'A#:maj/D']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab'], ['Bb', 'Eb:7', 'Ab']]</t>
+          <t>['E/3', 'A', 'E/5', 'B']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:20.780000', '0:00:31.600000'), ('0:01:08.660000', '0:01:12.640000')]</t>
+          <t>('0:01:14.879000', '0:01:27.795000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.604557', '0:00:16.370090'), ('0:00:23.428956', '0:00:30.731632')]</t>
+          <t>('0:00:28.395907', '0:00:32.322199')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=20.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=68.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=7.604557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=23.428956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=28.395907</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+          <t>('0:00:38.841000', '0:00:47.891000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:26.040000', '0:00:59.820000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=26.04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000'), ('0:00:00.500000', '0:00:03.900000')]</t>
+          <t>('0:00:00.300000', '0:00:03.340000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:25.480000', '0:00:32.800000')]</t>
+          <t>('0:00:13.648526', '0:00:21.125350')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -665,278 +681,286 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'C#:maj'], ['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['A#:maj', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:maj'], ['F#:7', 'B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:44.660000', '0:00:48.480000'), ('0:00:45.820000', '0:00:49.080000')]</t>
+          <t>('0:01:02.280000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.880000', '0:00:11.600000'), ('0:00:09.540000', '0:00:12.320000')]</t>
+          <t>('0:01:03.100000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=44.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=45.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=62.28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=8.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=9.54']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=63.1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A', 'D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:38.543000', '0:01:03.135000')]</t>
+          <t>('0:00:38.200000', '0:00:39.980000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:55.860352', '0:01:06.646022')]</t>
+          <t>('0:00:48.001000', '0:00:54.307000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=38.543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=55.860352']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:49.860000', '0:01:58.640000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=109.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=57.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A', 'E']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:32.808000', '0:00:37.075000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:31.759659', '0:00:37.738798')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=31.759659']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3', 'F']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'D:min/A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:01:48.280000', '0:02:00.520000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:24', '0:01:30.840000')]</t>
+          <t>('0:00:41.320000', '0:00:49.380000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=108.28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -944,246 +968,254 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['F:7', 'Bb', 'Bb:7/3']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:7']]</t>
+          <t>['B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000'), ('0:00:10.080000', '0:00:11.390000')]</t>
+          <t>('0:00:08.180000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000'), ('0:01:20.480000', '0:01:37.020000')]</t>
+          <t>('0:00:02.680000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13', 'https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=10.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=8.18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=80.48']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=2.68</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
+          <t>('0:00:37.700000', '0:00:56.260000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:15.940000', '0:00:24.900000')]</t>
+          <t>('0:00:02.020000', '0:00:10.620000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=37.7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=15.94']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min/G', 'G:maj'], ['C:min', 'G:maj', 'C:min'], ['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:12.660000', '0:00:17.100000'), ('0:00:00.780000', '0:00:05.260000'), ('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:32.660000', '0:00:35.460000'), ('0:00:07.960000', '0:00:13.120000'), ('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=12.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=32.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['G', 'D', 'E:min7', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
+          <t>('0:01:05.020000', '0:01:13.560000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+          <t>('0:00:26.250000', '0:00:39.805000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=65.02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=26.25</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:01:45', '0:01:48.540000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:02:08.540000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
